--- a/richtato/viz/static/data/Master Statements.xlsx
+++ b/richtato/viz/static/data/Master Statements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,6 +4755,5286 @@
         <v>2.4</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>08/26/2024</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>-61.95</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>08/22/2024</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>OBAITORI MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>MEMBERSHIP FEE AUG 24-JUL 25</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>08/17/2024</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>-86.09</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>08/13/2024</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-221.06</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>TST* SALT AND STRAW - SANTA CLARA CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>MJ SUSHI FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>78.84</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SQ *LUCKY TEA VALLEY F Santa Clara CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SQ *RAMEN NAGI VALLEY Santa Clara CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SQ *SOHO MODERN JAPANE Fremont CA</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>08/09/2024</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>5GUYS 4020 QSR CHICAGO IL null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>08/09/2024</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>NOODLES ETC CHICAGO IL null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>-79.34999999999999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>TST*MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 2984 HOLLAND MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>07/26/2024</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHI HOLLAND MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>07/16/2024</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>-38.59</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 2984 HOLLAND MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHI HOLLAND MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>07/07/2024</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>PY *KUNG FU TEA - HOLL HOLLAND MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>-407.82</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>06/23/2024</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>-103.38</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>06/23/2024</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DOMINO'S 1118 ANN ARBOR MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>06/23/2024</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DOG PATCH SFO T1 SAN FRANCISCO CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>06/22/2024</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>TST* EL JARDIN SAN JOSE CA</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>63.76</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>06/22/2024</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>TOUS LES JOURS FREMONT FREMONT CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>06/22/2024</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>TST* TAISHOKEN RAMEN San Mateo CA</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>103.38</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>06/20/2024</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>HAIDILAO HOT POT FREMO FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>100.56</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>06/20/2024</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>TST* BARNEYS GOURMET H Berkeley CA</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>06/19/2024</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SNACK* TP TEA (SAN MAT SAN FRANCISCO CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>06/19/2024</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SQ *SIMPLYCAKE San Mateo CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>06/18/2024</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>-50.19</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>06/18/2024</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>MJ SUSHI FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>50.69</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>06/18/2024</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>MENDOCINO FARMS #36 SAN FRANCISCO CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>06/17/2024</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Subway 25044 7344857827 MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>06/16/2024</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CHIPOTLE ONLINE CHIPOTLE.COM CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>06/15/2024</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>06/14/2024</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>CHIPOTLE ONLINE CHIPOTLE.COM CA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>06/13/2024</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>-57.63</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SLURPING TURTLE - ANN ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>TST* CLEAN JUICE - CAS GRAND RAPIDS MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>06/02/2024</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>05/30/2024</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>-61.8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>05/24/2024</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>05/18/2024</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>02/15/2024</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Subway 25044 7344857827 MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>02/14/2024</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Subway 25044 7344857827 MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>-57.21</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 1158 ANN ARBOR MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>-116.83</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>DOMINO'S 1118 ANN ARBOR MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>57.21</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>TST* MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>TST* MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>SLURPING TURTLE - ANN ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>01/26/2024</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>-275.48</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>01/23/2024</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Subway 25044 7344857827 MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>01/15/2024</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>STARBUCKS 800-782-7282 800-782-7282 WA null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>BOYNE MTN F&amp;B -DIN BOYNE FALLS MI</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>K&amp;D BISTRO YPSILANTI MI</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Subway 25044 7344857827 MI null XXXXXXXXXXXX9868</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TST* TOMUKUN KOREAN BB Ann Arbor MI</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Custom Cash</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>-152.08</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>08/26/2024</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>-599.4400000000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>08/25/2024</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>TESLA SUPERCHARGER US 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>08/23/2024</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>EXPEDIA 72895132839660 EXPEDIA.COM WA</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>-11.54</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>08/23/2024</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0569 COMMERCE CA</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>08/22/2024</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>185.56</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>08/16/2024</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>EXPEDIA 72898373964648 EXPEDIA.COM WA</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>337.55</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>08/13/2024</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>-426.16</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>MEET FRESH FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>83507 - WINCHESTER GARAGESAN JOSE CA</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>-636.64</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>EXPEDIA 72895132839660 EXPEDIA.COM WA</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>TOCK ATPRESS PRESSNAPAVAL IL</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SQ *BUN APPETIT Fremont CA</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>18.74</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>TST* EL JARDIN SAN JOSE CA</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>63.38</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 1846 MUNSTER IN</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>TESLA SUPERCHARGER US 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1107 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Butch's Dry Dock Holland MI</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>137.66</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>-348.37</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>TST*MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0744 WYOMING MI</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>134.47</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>UNITED 0164423008225UNITED.COM TXNAME:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>UNITED 0164423008224UNITED.COM TXNAME:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>GINZA SUSHI &amp; RAMEN. GRAND RAPIDS MI</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>71.92</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 2984 HOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>-489.36</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>TST* MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>UA INFLT 0164421641259HOUSTON TXNAME:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>UNITED 0164421641210UNITED.COM TXNAME:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>TST* MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>07/28/2024</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SQ *BUN APPETIT Fremont CA</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>07/28/2024</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>132.51</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>07/27/2024</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>VENTRA ACCOUNT CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>07/27/2024</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>TST* MIZU SUSHI Holland MI</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>59.48</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>07/27/2024</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>KRUNG THAI RESTAURANT SAN JOSE CA</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>99.36</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>07/26/2024</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>-166.63</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>07/26/2024</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>ALASKA AIR 0277114769813SEATTLE WANAME: KUO/YUEHLUNG DEPART:08/23/2024 SFO TO LAX: AS: CLASS:O : STOP: O</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>EXPEDIA 72883483935892 EXPEDIA.COM WA</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>UNITED 0162407842682UNITED.COM TXNAME: KUO/YUEHLUNG DEPART:08/13/2024 SFO TO TPE: UA: CLASS:Y : STOP: X  TO SFO: UA: CLASS:Y : STOP: O</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DELTA AIR 0067114765845SEATTLE WANAME: KUO/YUEHLUNG DEPART:08/28/2024 LAX TO SFO: DL: CLASS:E : STOP: O  TO : : CLASS: : STOP: O</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>48.48</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>-815.21</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>UNITED 0162407582962UNITED.COM TXNAME: KUO/YUEHLUNG DEPART:08/10/2024 ORD TO SFO: UA: CLASS:Y : STOP: X</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0744 WYOMING MI</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>124.06</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>07/23/2024</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 2984 HOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>CHIPOTLE 2984 HOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>07/20/2024</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>07/20/2024</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>HOLLAND STATE PARK HOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>07/20/2024</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>GINZA SUSHI &amp; RAMEN. GRAND RAPIDS MI</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>07/20/2024</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>GREYHOUND Los Angeles CA</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>32.98</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>07/18/2024</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>07/18/2024</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>07/17/2024</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>07/17/2024</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>07/16/2024</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>07/16/2024</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>07/15/2024</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>55.06</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>07/14/2024</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>VENTRA ACCOUNT CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>07/14/2024</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>07/13/2024</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>07/13/2024</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0744 WYOMING MI</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>55.09</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>-975.37</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>OURHOME CATERING MICHIGANHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>90.12</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>PY *KUNG FU TEA - HOLLANDHOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>FAIRFIELD INN ANN ARBO ANN ARBOR MI PHONE NUMBER:  FOLIO NUMBER:  ARRIVE:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>268.62</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>RUTH'S CHRIS STEAK HOUSE ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>MARIANOS #503 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>82.41</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>376.18</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>VENTRA ACCOUNT CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>OC LAU INC GARDEN GROVE CA</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>129.61</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>07/04/2024</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>SQ *KINROSE CREAMERY Pasadena CA</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>07/04/2024</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>TST* YIFANG FRUIT TEA - CPasadena CA</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>-247.68</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0744 WYOMING MI</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>136.45</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>CHIPOTLE ONLINE CHIPOTLE.COM CA</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Costco Annual Membership Renewal 1-800-7</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>06/29/2024</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>MEIJER # 217 FUEL HOLLAND MI</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>06/29/2024</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0744 WYOMING MI</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>06/28/2024</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>SQ *ANGKOR CHEF San Jose CA</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>06/27/2024</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>FACTORY COFFEE FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>06/26/2024</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>40.81</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>06/24/2024</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>BONCHON - SUNNYVALE SUNNYVALE CA</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>06/24/2024</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>IN-N-OUT MILPITAS MILPITAS CA</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>06/21/2024</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>79.23</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>06/18/2024</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>-205.25</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>06/15/2024</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>MIKIYA WAGYU SHABU HOU 131-27305592 IL</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>205.25</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>06/13/2024</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>-352.77</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>06/10/2024</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>45.85</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>TESLA SUPERCHARGER US 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>TESLA SUPERCHARGER US 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0144 SAN FRANCISCOCA</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>200.86</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>06/07/2024</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>-83.84</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>06/04/2024</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>05/30/2024</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>-383.17</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>05/30/2024</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>83.84</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>05/26/2024</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>62.93</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>05/25/2024</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>05/25/2024</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>206.19</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>05/24/2024</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>94.76000000000001</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>05/18/2024</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>05/17/2024</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>92.15000000000001</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>19.92</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>05/05/2024</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>71.93000000000001</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>04/28/2024</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ZIPPY AUTO WASH ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>04/28/2024</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>BP#1998046CAPL GA0036 MARIETTA GA</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>04/28/2024</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>110.23</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>04/27/2024</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>-21.19</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>04/27/2024</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>48.76</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>04/25/2024</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>04/21/2024</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>71.84999999999999</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>04/21/2024</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>WESTIN (WESTIN HOTELS) PHOENIX AZ PHONE NUMBER:  FOLIO NUMBER:  ARRIVE:  DEPART:</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>227.99</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>-1112.99</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>04/17/2024</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>122.02</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>04/14/2024</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>60.63</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>-1503.83</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>109.34</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>SQ *RAMEN NAGI VALLEY FAISanta Clara CA</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>53.52</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>SEAPOT HOT POT &amp; BAR SUNNYVALE CA</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>97.83</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>91.11</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>03/28/2024</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>EV CONNECT, INC. 866-816-7584 CA</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>03/28/2024</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>ZIPPY AUTO WASH ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>03/27/2024</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>1112.99</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>03/26/2024</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>-526.95</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>03/21/2024</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>03/20/2024</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>103.36</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>03/17/2024</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1107 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>03/16/2024</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>BERKELEY-PRKG IPS METER BERKELEY CA</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>03/16/2024</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>BERKELEY-PRKG IPS METER BERKELEY CA</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>03/16/2024</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>BP#1733807CABANISS ROAD FORSYTH GA</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>37.78</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>42.84</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0188 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>74.31999999999999</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>03/08/2024</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>-188.04</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>03/03/2024</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>42.87</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>03/03/2024</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>03/02/2024</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>-257.6</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>03/02/2024</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>02/29/2024</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>47.14</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>02/28/2024</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>ZIPPY AUTO WASH ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>02/25/2024</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>138.52</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>02/25/2024</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>35.95</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>02/23/2024</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>-684.0700000000001</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>02/16/2024</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>-35.99</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>02/16/2024</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>265.75</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>02/16/2024</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>82.18000000000001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>-78.42</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>151.83</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>HANCOOK. OAKLAND CA</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>95.12</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1004 SAN JOSE CA</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>113.32</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>02/09/2024</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>GEN - FREMONT FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>78.04000000000001</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>-1353.45</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>02/03/2024</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DELTA AIR 0062208164056800-2211212 CANAME: KUO/YUEHLUNG DEPART:03/15/2024  TO DTW: DL: CLASS:E : STOP:  DTW TO SFO: DL: CLASS:E : STOP: O  TO : : CLASS: : STOP: O</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>497.3</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>02/03/2024</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>UEP*DUMPLING HOME SAN FRANCISCOCA</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>90.05</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>-166.46</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>242.47</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>HAIDILAO HOT POT FREMONT FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #0778 FREMONT CA</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>448.87</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>01/28/2024</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>ZIPPY AUTO WASH ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>01/27/2024</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>01/26/2024</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>-576.5599999999999</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>01/26/2024</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #1084 ATLANTA GA</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>34.43</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>01/24/2024</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>183.86</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>01/17/2024</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>312.71</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>01/15/2024</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>01/15/2024</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>01/13/2024</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>ONLINE PAYMENT, THANK YOU</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>-573.4400000000001</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Tesla Inc Supercharger 877-7983752 CA</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>-11.99</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>189.53</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>COSTCO GAS #0189 KENNESAW GA</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1106 ANN ARBOR MI</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>COSTCO WHSE #1107 CHICAGO IL</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>118.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
